--- a/data/trans_dic/P17G_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02065591202231508</v>
+        <v>0.02028445921247667</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02259983226609684</v>
+        <v>0.02377588749543482</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.006951957816295797</v>
+        <v>0.007414162716881991</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01149596938071732</v>
+        <v>0.01192606512561027</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.005935218196023838</v>
+        <v>0.005958682697308981</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01468925769705152</v>
+        <v>0.0153973372745288</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01881704804510048</v>
+        <v>0.01837055244839095</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.001640622986309329</v>
+        <v>0.00162690236304513</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01735292188077547</v>
+        <v>0.0173057163422447</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01424186938743701</v>
+        <v>0.01358654792562815</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07038456627713087</v>
+        <v>0.068717245948204</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01860128581848328</v>
+        <v>0.01924307250055141</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0774080928287189</v>
+        <v>0.07624922014972609</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03761536662984952</v>
+        <v>0.03938023507057467</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05292606179064621</v>
+        <v>0.05353587546992816</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02179857338822113</v>
+        <v>0.02281258395322996</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03523817419940302</v>
+        <v>0.03467588740125595</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04085609353656443</v>
+        <v>0.04325391057119909</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05202046792709938</v>
+        <v>0.05068778005951922</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01531710077663206</v>
+        <v>0.01507578212641371</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04908935838058229</v>
+        <v>0.04683662523127786</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03571675820148893</v>
+        <v>0.03420689073668567</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002023832707281091</v>
+        <v>0.002016078762674399</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006222138526369849</v>
+        <v>0.0061888172270452</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002144882089420253</v>
+        <v>0.002146067117654831</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.006563784953247364</v>
+        <v>0.006369359774360557</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.008106543744884093</v>
+        <v>0.01008227039192998</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.005891073476402362</v>
+        <v>0.005916357485817743</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.004136163645167287</v>
+        <v>0.004193043409197903</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.006345235446459945</v>
+        <v>0.006706556520140479</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.008022765362773309</v>
+        <v>0.008177688277426777</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.008308900331237016</v>
+        <v>0.007858066394406817</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.005181725646751166</v>
+        <v>0.005916704261506684</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0082416632627505</v>
+        <v>0.008176043906034174</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02782983182036881</v>
+        <v>0.02675169105887222</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03706451246618853</v>
+        <v>0.03612809534901893</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02437534795112682</v>
+        <v>0.02574124300794273</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03170712055769311</v>
+        <v>0.02951948327948288</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03468749767996027</v>
+        <v>0.03581977796951374</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02796976869111892</v>
+        <v>0.02765215091491117</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02390450230120054</v>
+        <v>0.02357069666198865</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02620562904323327</v>
+        <v>0.02569173028754147</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02569005664601843</v>
+        <v>0.02523219041912461</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.02649864463937515</v>
+        <v>0.02648113553144151</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02108453736565283</v>
+        <v>0.01991077237014727</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02312536231409322</v>
+        <v>0.02293540015225106</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.01965441812501852</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.01372227749618336</v>
+        <v>0.01372227749618335</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.00830351789207371</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0029513699922684</v>
+        <v>0.003001735222640585</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002965766848061858</v>
+        <v>0.002953708038300768</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008533479685538699</v>
+        <v>0.008443312500682951</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.00494750112664609</v>
+        <v>0.004082013797804793</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.00265252562571651</v>
+        <v>0.002657090184907722</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.00291511713388812</v>
+        <v>0.002926994547627252</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.005657366681759124</v>
+        <v>0.00568015096694582</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01026476371911797</v>
+        <v>0.009825402410802203</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.003995459401927441</v>
+        <v>0.003839608256297652</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.005861588516050897</v>
+        <v>0.005806331110626731</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.008925222478829164</v>
+        <v>0.00951149887262877</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01002177753468908</v>
+        <v>0.01003532076869245</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03253378052963986</v>
+        <v>0.03318101420125794</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03014180788119421</v>
+        <v>0.02838301121479373</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03750542128483745</v>
+        <v>0.0374561857805594</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0310293996410467</v>
+        <v>0.02992172206221096</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02512892937493589</v>
+        <v>0.02225546707509183</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04229235821418218</v>
+        <v>0.03854303039862901</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03308381748015351</v>
+        <v>0.03232561676778534</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03467191974664438</v>
+        <v>0.03351226576436024</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02142711332585533</v>
+        <v>0.01986376828940953</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02619799803449521</v>
+        <v>0.02765030596630367</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02964527338986272</v>
+        <v>0.02834077337029585</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02677001722854281</v>
+        <v>0.02843417244497104</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002468332702534315</v>
+        <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.008131250818745848</v>
+        <v>0.008189285661580923</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002575303607189854</v>
+        <v>0.002612314447238755</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.009080884587440705</v>
+        <v>0.008065287681492702</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.004806516508075047</v>
+        <v>0.004845494358708677</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.002356544198477503</v>
+        <v>0.002409461772221268</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01727547558794062</v>
+        <v>0.01743790088533375</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.009983300540019014</v>
+        <v>0.0101263765118392</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.003874574162576472</v>
+        <v>0.004995928644577921</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.00646695142986372</v>
+        <v>0.006659871003738521</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01162454268913097</v>
+        <v>0.01206690281033961</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0122596636326744</v>
+        <v>0.01266744089969831</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0204370902320003</v>
+        <v>0.02096342894525428</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04875438038878308</v>
+        <v>0.0464194523534707</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02730978912374981</v>
+        <v>0.02853438272660284</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04222646993123218</v>
+        <v>0.04087512429119874</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02752279154056439</v>
+        <v>0.02781688129506277</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01993247811914443</v>
+        <v>0.02358562401443515</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.05979161522250784</v>
+        <v>0.06356772317856649</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03623432735195397</v>
+        <v>0.03837191238582473</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01911257788689171</v>
+        <v>0.01916483241779937</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02796785441525274</v>
+        <v>0.02756126214480039</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03670835673577551</v>
+        <v>0.03685625514421684</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03356667410380854</v>
+        <v>0.03346508373176599</v>
       </c>
     </row>
     <row r="16">
@@ -1255,37 +1255,37 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0</v>
+        <v>0.004778148217319229</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.004475089274478735</v>
+        <v>0.004496810976555432</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.005010952601623718</v>
+        <v>0.005357486499852657</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.01279880452615782</v>
+        <v>0.01299687683321015</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.007098820977393729</v>
+        <v>0.007191945187171375</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.006492394361942921</v>
+        <v>0.00623348512888116</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.009612533838716058</v>
+        <v>0.009444232039934424</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.004319476142109978</v>
+        <v>0.004397526138292281</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.006236808347403786</v>
+        <v>0.005558535192764483</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0293661838247626</v>
+        <v>0.02999757657057054</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03518519875371866</v>
+        <v>0.03956689420474672</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04961078262071805</v>
+        <v>0.05484424096394464</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02505751417612625</v>
+        <v>0.02294875078872359</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05573841545077967</v>
+        <v>0.05485052393352226</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05451012113172519</v>
+        <v>0.05418100207732433</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02843831069634811</v>
+        <v>0.02818810658257421</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.03728422773840716</v>
+        <v>0.03677572910747925</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03313209513720343</v>
+        <v>0.0329312050158812</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03959634076063887</v>
+        <v>0.0396717820121566</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03078129889244663</v>
+        <v>0.02939198785228565</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02601614610239924</v>
+        <v>0.02459588428857613</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.01437243467748649</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.01472603360592619</v>
+        <v>0.01472603360592618</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.008498950967250597</v>
@@ -1388,34 +1388,34 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003559737090427493</v>
+        <v>0.003579393970950662</v>
       </c>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.001666917707537447</v>
+        <v>0.001644071031278875</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="inlineStr"/>
       <c r="I20" s="5" t="n">
-        <v>0.003549704553704218</v>
+        <v>0.003802321776767318</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.00615840300737125</v>
+        <v>0.006050900049838284</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.003272276498152967</v>
+        <v>0.003305993819713324</v>
       </c>
       <c r="L20" s="5" t="inlineStr"/>
       <c r="M20" s="5" t="n">
-        <v>0.003858954472852202</v>
+        <v>0.003904452773593655</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.005046891326172159</v>
+        <v>0.004773622179320113</v>
       </c>
     </row>
     <row r="21">
@@ -1426,34 +1426,34 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03445201525373396</v>
+        <v>0.03588061969340202</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.02597708805893744</v>
+        <v>0.02605948902044087</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.015976798783554</v>
+        <v>0.01427671652436727</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.01691664580256473</v>
+        <v>0.01867440204170869</v>
       </c>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="n">
-        <v>0.03380799978282183</v>
+        <v>0.03385133768667854</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.03052893357946038</v>
+        <v>0.03065928900131781</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.01865814711967919</v>
+        <v>0.01871399466767559</v>
       </c>
       <c r="L21" s="5" t="inlineStr"/>
       <c r="M21" s="5" t="n">
-        <v>0.02400306658278877</v>
+        <v>0.02607680892803349</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.01809087732045699</v>
+        <v>0.01851956871598502</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.01344253869852888</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.04026149297634871</v>
+        <v>0.0402614929763487</v>
       </c>
     </row>
     <row r="23">
@@ -1512,40 +1512,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.004755607934865376</v>
+        <v>0.00609775078428006</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.009265324970773026</v>
+        <v>0.008878173462047868</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.005763346038909149</v>
+        <v>0.005325175758329532</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02015975131352499</v>
+        <v>0.02016001981843538</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.008114202815717356</v>
+        <v>0.007300539106780936</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01187078759053452</v>
+        <v>0.01159107500754732</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.007162867418352595</v>
+        <v>0.007160635288645582</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.03350161221218325</v>
+        <v>0.03328742873716447</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.008948959330309496</v>
+        <v>0.007881474232723049</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0130125641504668</v>
+        <v>0.01296694210614843</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.00751939688653087</v>
+        <v>0.0080000763320671</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.03072726609589228</v>
+        <v>0.03110336430094606</v>
       </c>
     </row>
     <row r="24">
@@ -1556,40 +1556,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02381654374245902</v>
+        <v>0.02327330904077355</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03041251356127249</v>
+        <v>0.0311718853862145</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02680627336643707</v>
+        <v>0.02452436595688439</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05438376454917707</v>
+        <v>0.05406563377223594</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.02898229701695559</v>
+        <v>0.02890980613035592</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03701072815808382</v>
+        <v>0.03490302307796407</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02591348664226259</v>
+        <v>0.02468251819605984</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06141820473610581</v>
+        <v>0.06392157759795464</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02279227084851409</v>
+        <v>0.02273671702427082</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02933589272798546</v>
+        <v>0.02950196353229262</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.0215594848444326</v>
+        <v>0.02117942326409208</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.05280976963185875</v>
+        <v>0.05258240115843498</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.026251995596841</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.01382144046096052</v>
+        <v>0.01382144046096053</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.01739137560445685</v>
@@ -1648,40 +1648,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.007663048325376248</v>
+        <v>0.008184750028395592</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.004071841759412465</v>
+        <v>0.004218819611500448</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01488831991141</v>
+        <v>0.0150231182954268</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.005968779119348519</v>
+        <v>0.006411578992115655</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.00998340010821735</v>
+        <v>0.01033042255284746</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.002631919856430155</v>
+        <v>0.002741079183282837</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01630282677138227</v>
+        <v>0.01655119885630658</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.008595015412531586</v>
+        <v>0.007999257893459649</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01105441122943926</v>
+        <v>0.01151826096432193</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.00524962313810268</v>
+        <v>0.005085151182914284</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01784360212597259</v>
+        <v>0.01817175737666294</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.00882883199534917</v>
+        <v>0.008441356981400642</v>
       </c>
     </row>
     <row r="27">
@@ -1692,40 +1692,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02824190917476751</v>
+        <v>0.02760371500531154</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02309757576946907</v>
+        <v>0.02264055789817671</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03680505388186594</v>
+        <v>0.03844231605825945</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02468763565732117</v>
+        <v>0.02615544445156313</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03248954411704805</v>
+        <v>0.03109511194258672</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01545723506712528</v>
+        <v>0.01549789977052994</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.04241670527208587</v>
+        <v>0.04204256954682901</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.02339513829516596</v>
+        <v>0.02240198434206961</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0255168640284277</v>
+        <v>0.02704718687037674</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.01631454093583671</v>
+        <v>0.01558089078877584</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.03437061182503007</v>
+        <v>0.03535282891962205</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.02087236424262101</v>
+        <v>0.02031244149540784</v>
       </c>
     </row>
     <row r="28">
@@ -1784,40 +1784,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01040876009690163</v>
+        <v>0.01050007968090489</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.009346928317032457</v>
+        <v>0.009165293960627305</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.0137726205145387</v>
+        <v>0.01411167687498522</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.01383488945828351</v>
+        <v>0.01340367158791818</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.01187234438377257</v>
+        <v>0.01222716808264533</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.008934788260747473</v>
+        <v>0.008804871788197065</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.01423236912651299</v>
+        <v>0.01395718901827924</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.01882350420284923</v>
+        <v>0.01868006419978694</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.01228649801512709</v>
+        <v>0.0124731425584303</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.01030473215621848</v>
+        <v>0.009931310540862836</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.01494950254600299</v>
+        <v>0.01505905919761619</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.01724921821579515</v>
+        <v>0.01759046219607625</v>
       </c>
     </row>
     <row r="30">
@@ -1828,40 +1828,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.01880544140780325</v>
+        <v>0.01909775885376024</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01782084155155628</v>
+        <v>0.01768969829193057</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.02308876150421301</v>
+        <v>0.02345423144551749</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.02353386828676792</v>
+        <v>0.02346778189691819</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.0210829211882431</v>
+        <v>0.02153900608299412</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.01680885720677698</v>
+        <v>0.01721849921532371</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.02376821947388872</v>
+        <v>0.02398525005606423</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.02766206675885786</v>
+        <v>0.02730363209486178</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.01837811888399054</v>
+        <v>0.01850212570741089</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.0160197280193046</v>
+        <v>0.01543900060234787</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.02226225177121745</v>
+        <v>0.02212880349133691</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.02380772428769627</v>
+        <v>0.02418576094138528</v>
       </c>
     </row>
     <row r="31">
@@ -2136,40 +2136,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5639</v>
+        <v>5538</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6639</v>
+        <v>6984</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2217</v>
+        <v>2364</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2999</v>
+        <v>3111</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1714</v>
+        <v>1720</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4628</v>
+        <v>4851</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>10045</v>
+        <v>9807</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>10107</v>
+        <v>10080</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>9028</v>
+        <v>8613</v>
       </c>
     </row>
     <row r="7">
@@ -2180,40 +2180,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19216</v>
+        <v>18760</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5483</v>
+        <v>5672</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>22739</v>
+        <v>22399</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>11993</v>
+        <v>12556</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13805</v>
+        <v>13964</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>6241</v>
+        <v>6531</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>10173</v>
+        <v>10011</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>12873</v>
+        <v>13628</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>27771</v>
+        <v>27060</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>8900</v>
+        <v>8760</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>28593</v>
+        <v>27281</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>22642</v>
+        <v>21684</v>
       </c>
     </row>
     <row r="8">
@@ -2316,40 +2316,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3102</v>
+        <v>3086</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>1076</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3477</v>
+        <v>3374</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4085</v>
+        <v>5081</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3080</v>
+        <v>3093</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2155</v>
+        <v>2185</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3468</v>
+        <v>3665</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>7999</v>
+        <v>8153</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8486</v>
+        <v>8026</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>5299</v>
+        <v>6050</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8870</v>
+        <v>8799</v>
       </c>
     </row>
     <row r="11">
@@ -2360,40 +2360,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13722</v>
+        <v>13191</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>18480</v>
+        <v>18013</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12226</v>
+        <v>12911</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16797</v>
+        <v>15638</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17481</v>
+        <v>18051</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>14621</v>
+        <v>14455</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12454</v>
+        <v>12281</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>14321</v>
+        <v>14040</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>25614</v>
+        <v>25157</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>27064</v>
+        <v>27046</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>21560</v>
+        <v>20360</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>24888</v>
+        <v>24684</v>
       </c>
     </row>
     <row r="12">
@@ -2496,40 +2496,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>941</v>
+        <v>957</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2703</v>
+        <v>2674</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1563</v>
+        <v>1290</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1893</v>
+        <v>1900</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3658</v>
+        <v>3502</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2606</v>
+        <v>2504</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>3838</v>
+        <v>3802</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5813</v>
+        <v>6195</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>6738</v>
+        <v>6747</v>
       </c>
     </row>
     <row r="15">
@@ -2540,40 +2540,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10373</v>
+        <v>10580</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9585</v>
+        <v>9025</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11879</v>
+        <v>11863</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9805</v>
+        <v>9455</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>8378</v>
+        <v>7420</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14246</v>
+        <v>12983</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11069</v>
+        <v>10815</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>12356</v>
+        <v>11943</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>13976</v>
+        <v>12956</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>17155</v>
+        <v>18106</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>19308</v>
+        <v>18458</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>17999</v>
+        <v>19118</v>
       </c>
     </row>
     <row r="16">
@@ -2676,40 +2676,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3025</v>
+        <v>3047</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>948</v>
+        <v>961</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3388</v>
+        <v>3010</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1785</v>
+        <v>1800</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>890</v>
+        <v>910</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6653</v>
+        <v>6716</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4208</v>
+        <v>4269</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>2825</v>
+        <v>3643</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4849</v>
+        <v>4993</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>8755</v>
+        <v>9089</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>9743</v>
+        <v>10067</v>
       </c>
     </row>
     <row r="19">
@@ -2720,40 +2720,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7311</v>
+        <v>7500</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>18138</v>
+        <v>17270</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10051</v>
+        <v>10502</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>15757</v>
+        <v>15252</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>10224</v>
+        <v>10333</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>7529</v>
+        <v>8909</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>23028</v>
+        <v>24482</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>15274</v>
+        <v>16175</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>13937</v>
+        <v>13975</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>20969</v>
+        <v>20664</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>27648</v>
+        <v>27759</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>26675</v>
+        <v>26594</v>
       </c>
     </row>
     <row r="20">
@@ -2859,37 +2859,37 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1041</v>
+        <v>1113</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2811</v>
+        <v>2854</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1607</v>
+        <v>1628</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2668</v>
+        <v>2562</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4145</v>
+        <v>4072</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1848</v>
+        <v>1881</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2694</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="23">
@@ -2900,40 +2900,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5970</v>
+        <v>6099</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>7445</v>
+        <v>8372</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>10426</v>
+        <v>11526</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>5153</v>
+        <v>4720</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>11575</v>
+        <v>11391</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>11970</v>
+        <v>11898</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>6187</v>
+        <v>6133</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>8439</v>
+        <v>8324</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>13616</v>
+        <v>13534</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>17074</v>
+        <v>17106</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>13166</v>
+        <v>12572</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>11239</v>
+        <v>10625</v>
       </c>
     </row>
     <row r="24">
@@ -3036,34 +3036,34 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="inlineStr"/>
       <c r="I26" s="6" t="n">
-        <v>943</v>
+        <v>1010</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1624</v>
+        <v>1596</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1796</v>
+        <v>1815</v>
       </c>
       <c r="L26" s="6" t="inlineStr"/>
       <c r="M26" s="6" t="n">
-        <v>2030</v>
+        <v>2054</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>2697</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="27">
@@ -3074,34 +3074,34 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9330</v>
+        <v>9717</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>6763</v>
+        <v>6785</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4325</v>
+        <v>3865</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4705</v>
+        <v>5194</v>
       </c>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="n">
-        <v>8984</v>
+        <v>8996</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>8052</v>
+        <v>8086</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>10242</v>
+        <v>10273</v>
       </c>
       <c r="L27" s="6" t="inlineStr"/>
       <c r="M27" s="6" t="n">
-        <v>12628</v>
+        <v>13719</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>9669</v>
+        <v>9898</v>
       </c>
     </row>
     <row r="28">
@@ -3204,40 +3204,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2904</v>
+        <v>3723</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>6123</v>
+        <v>5867</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3784</v>
+        <v>3496</v>
       </c>
       <c r="F30" s="6" t="n">
         <v>14509</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>5179</v>
+        <v>4659</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>8214</v>
+        <v>8020</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>4944</v>
+        <v>4943</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>25829</v>
+        <v>25664</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>11176</v>
+        <v>9843</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>17603</v>
+        <v>17542</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>10127</v>
+        <v>10775</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>45804</v>
+        <v>46365</v>
       </c>
     </row>
     <row r="31">
@@ -3248,40 +3248,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14542</v>
+        <v>14211</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>20099</v>
+        <v>20601</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>17600</v>
+        <v>16102</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>39139</v>
+        <v>38910</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>18497</v>
+        <v>18451</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>25608</v>
+        <v>24150</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>17888</v>
+        <v>17038</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>47353</v>
+        <v>49283</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>28463</v>
+        <v>28394</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>39685</v>
+        <v>39910</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>29037</v>
+        <v>28525</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>78722</v>
+        <v>78383</v>
       </c>
     </row>
     <row r="32">
@@ -3384,40 +3384,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>5694</v>
+        <v>6081</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3151</v>
+        <v>3265</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>11544</v>
+        <v>11649</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>4760</v>
+        <v>5113</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>7822</v>
+        <v>8094</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2155</v>
+        <v>2245</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>13363</v>
+        <v>13567</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>7134</v>
+        <v>6640</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>16874</v>
+        <v>17583</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>8361</v>
+        <v>8099</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>28462</v>
+        <v>28985</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>14369</v>
+        <v>13738</v>
       </c>
     </row>
     <row r="35">
@@ -3428,40 +3428,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>20983</v>
+        <v>20509</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>17875</v>
+        <v>17521</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>28538</v>
+        <v>29808</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>19686</v>
+        <v>20856</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>25456</v>
+        <v>24363</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>12657</v>
+        <v>12691</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>34768</v>
+        <v>34462</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>19419</v>
+        <v>18595</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>38951</v>
+        <v>41287</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>25985</v>
+        <v>24817</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>54824</v>
+        <v>56390</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>33969</v>
+        <v>33058</v>
       </c>
     </row>
     <row r="36">
@@ -3564,40 +3564,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>34041</v>
+        <v>34339</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>31794</v>
+        <v>31176</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>46587</v>
+        <v>47734</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>48854</v>
+        <v>47331</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>40095</v>
+        <v>41293</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>31524</v>
+        <v>31065</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>50136</v>
+        <v>49167</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>70223</v>
+        <v>69688</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>81675</v>
+        <v>82916</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>71409</v>
+        <v>68822</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>103230</v>
+        <v>103987</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>125261</v>
+        <v>127739</v>
       </c>
     </row>
     <row r="39">
@@ -3608,40 +3608,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>61501</v>
+        <v>62457</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>60619</v>
+        <v>60173</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>78099</v>
+        <v>79335</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>83103</v>
+        <v>82869</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>71201</v>
+        <v>72741</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>59305</v>
+        <v>60750</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>83728</v>
+        <v>84493</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>103197</v>
+        <v>101860</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>122170</v>
+        <v>122994</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>111013</v>
+        <v>106989</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>153726</v>
+        <v>152805</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>172887</v>
+        <v>175632</v>
       </c>
     </row>
     <row r="40">
